--- a/Testautomationdemo/src/main/java/com/qa/testdata/ExcelUtil.xlsx
+++ b/Testautomationdemo/src/main/java/com/qa/testdata/ExcelUtil.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java Workplace\Testautomationdemo\src\main\java\com\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\Testautomationdemo\Testautomationdemo\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,17 +37,17 @@
     <t>password</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>admin@yourstore.com</t>
   </si>
   <si>
-    <t>nithya@27</t>
+    <t>admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,14 +89,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,12 +415,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -421,7 +433,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -429,6 +441,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>